--- a/data/raw_data/2016/permits-issued-by-nationality-2016.xlsx
+++ b/data/raw_data/2016/permits-issued-by-nationality-2016.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2016\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB17639B-6FB7-4245-B741-A56C9AA87D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PermitsbyNationality" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PermitsbyNationality!$A$1:$G$114</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
   <si>
     <t>Year</t>
   </si>
@@ -78,9 +98,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -90,12 +107,6 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -105,9 +116,6 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
@@ -126,12 +134,6 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -144,15 +146,6 @@
     <t>Sudan</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -165,9 +158,6 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Venezuela</t>
   </si>
   <si>
@@ -201,9 +191,6 @@
     <t>Ghana</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -246,12 +233,6 @@
     <t>Haiti</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -264,21 +245,12 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Congo, The Democratic Republic of the</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
     <t>Jamaica</t>
   </si>
   <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
@@ -336,9 +308,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -360,25 +329,55 @@
     <t>Oman</t>
   </si>
   <si>
-    <t>Republic of China</t>
-  </si>
-  <si>
-    <t>Tibet</t>
-  </si>
-  <si>
-    <t>Kosova</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
     <t>Seychelles</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Saint Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,6 +453,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -501,7 +503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,9 +536,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,6 +588,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,11 +780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +844,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -829,7 +865,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6">
         <v>11</v>
@@ -871,7 +907,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -913,7 +949,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -955,7 +991,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10" s="6">
         <v>6</v>
@@ -976,7 +1012,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
@@ -1039,7 +1075,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -1060,7 +1096,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1081,7 +1117,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -1123,7 +1159,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6">
         <v>3</v>
@@ -1165,7 +1201,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -1270,7 +1306,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1291,7 +1327,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6">
         <v>10</v>
@@ -1312,7 +1348,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -1333,7 +1369,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -1354,7 +1390,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1396,7 +1432,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -1417,7 +1453,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -1438,7 +1474,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C33" s="6">
         <v>4</v>
@@ -1459,7 +1495,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -1480,7 +1516,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C35" s="6">
         <v>3</v>
@@ -1501,7 +1537,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C36" s="6">
         <v>4</v>
@@ -1522,7 +1558,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -1543,7 +1579,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -1564,7 +1600,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
@@ -1585,7 +1621,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="5" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C40" s="6">
         <v>5</v>
@@ -1627,7 +1663,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C42" s="6">
         <v>5</v>
@@ -1648,7 +1684,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="5" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C43" s="6">
         <v>27</v>
@@ -1669,7 +1705,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="6">
         <v>19</v>
@@ -1690,7 +1726,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C45" s="6">
         <v>5</v>
@@ -1711,7 +1747,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="6">
         <v>156</v>
@@ -1732,7 +1768,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="5" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -1753,7 +1789,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
@@ -1774,7 +1810,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="6">
         <v>80</v>
@@ -1795,7 +1831,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C50" s="6">
         <v>14</v>
@@ -1816,7 +1852,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C51" s="6">
         <v>7</v>
@@ -1837,7 +1873,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C52" s="6">
         <v>10</v>
@@ -1858,7 +1894,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="5" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C53" s="6">
         <v>25</v>
@@ -1879,7 +1915,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="5" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C54" s="6">
         <v>0</v>
@@ -1900,7 +1936,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="5" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C55" s="6">
         <v>2</v>
@@ -1921,7 +1957,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
@@ -1942,7 +1978,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C57" s="6">
         <v>21</v>
@@ -1963,7 +1999,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C58" s="6">
         <v>5</v>
@@ -1984,7 +2020,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="5" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C59" s="6">
         <v>6</v>
@@ -2005,7 +2041,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C60" s="6">
         <v>2</v>
@@ -2026,7 +2062,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C61" s="6">
         <v>168</v>
@@ -2047,7 +2083,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C62" s="6">
         <v>2</v>
@@ -2068,7 +2104,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C63" s="6">
         <v>29</v>
@@ -2089,7 +2125,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C64" s="6">
         <v>37</v>
@@ -2110,7 +2146,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="5" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C65" s="6">
         <v>2</v>
@@ -2131,7 +2167,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C66" s="6">
         <v>0</v>
@@ -2152,7 +2188,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C67" s="6">
         <v>12</v>
@@ -2173,7 +2209,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C68" s="6">
         <v>0</v>
@@ -2194,7 +2230,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C69" s="6">
         <v>18</v>
@@ -2215,7 +2251,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C70" s="6">
         <v>31</v>
@@ -2236,7 +2272,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C71" s="6">
         <v>0</v>
@@ -2257,7 +2293,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C72" s="6">
         <v>116</v>
@@ -2278,7 +2314,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C73" s="6">
         <v>2</v>
@@ -2299,7 +2335,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C74" s="6">
         <v>683</v>
@@ -2320,7 +2356,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="5" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C75" s="6">
         <v>6</v>
@@ -2341,7 +2377,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C76" s="6">
         <v>7</v>
@@ -2362,7 +2398,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C77" s="6">
         <v>355</v>
@@ -2383,7 +2419,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="5" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C78" s="6">
         <v>1</v>
@@ -2404,7 +2440,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C79" s="6">
         <v>4</v>
@@ -2425,7 +2461,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="5" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C80" s="6">
         <v>159</v>
@@ -2446,7 +2482,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C81" s="6">
         <v>1</v>
@@ -2467,7 +2503,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" s="6">
         <v>1</v>
@@ -2488,7 +2524,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C83" s="6">
         <v>5</v>
@@ -2509,7 +2545,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C84" s="6">
         <v>1</v>
@@ -2530,7 +2566,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C85" s="6">
         <v>29</v>
@@ -2551,7 +2587,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="5" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C86" s="6">
         <v>1</v>
@@ -2572,7 +2608,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="5" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C87" s="6">
         <v>1</v>
@@ -2593,7 +2629,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C88" s="6">
         <v>22</v>
@@ -2614,7 +2650,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C89" s="6">
         <v>1</v>
@@ -2635,7 +2671,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C90" s="6">
         <v>177</v>
@@ -2656,7 +2692,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C91" s="6">
         <v>27</v>
@@ -2677,7 +2713,7 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C92" s="6">
         <v>221</v>
@@ -2698,7 +2734,7 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="5" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C93" s="6">
         <v>1</v>
@@ -2719,7 +2755,7 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="5" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C94" s="6">
         <v>6</v>
@@ -2740,7 +2776,7 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C95" s="6">
         <v>6</v>
@@ -2761,7 +2797,7 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="5" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C96" s="6">
         <v>1</v>
@@ -2782,7 +2818,7 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C97" s="6">
         <v>5</v>
@@ -2803,7 +2839,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="5" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C98" s="6">
         <v>1</v>
@@ -2824,7 +2860,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C99" s="6">
         <v>9</v>
@@ -2845,7 +2881,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C100" s="6">
         <v>7</v>
@@ -2866,7 +2902,7 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C101" s="6">
         <v>142</v>
@@ -2887,7 +2923,7 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C102" s="6">
         <v>0</v>
@@ -2908,7 +2944,7 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C103" s="6">
         <v>3</v>
@@ -2929,7 +2965,7 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C104" s="6">
         <v>178</v>
@@ -2950,7 +2986,7 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C105" s="6">
         <v>1</v>
@@ -2971,7 +3007,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C106" s="6">
         <v>2</v>
@@ -2992,7 +3028,7 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="5" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C107" s="6">
         <v>728</v>
@@ -3013,7 +3049,7 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C108" s="6">
         <v>1</v>
@@ -3034,7 +3070,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C109" s="6">
         <v>4</v>
@@ -3055,7 +3091,7 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C110" s="6">
         <v>61</v>
@@ -3076,7 +3112,7 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C111" s="6">
         <v>11</v>
@@ -3097,7 +3133,7 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C112" s="6">
         <v>1</v>
@@ -3118,7 +3154,7 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C113" s="6">
         <v>2</v>
@@ -3139,7 +3175,7 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C114" s="6">
         <v>16</v>
@@ -3386,13 +3422,14 @@
       <c r="D152" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3404,7 +3441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
